--- a/data/trans_orig/P1804_2016_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1804_2016_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>65569</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51465</v>
+        <v>50578</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82654</v>
+        <v>82368</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08692171591945332</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06822404493105826</v>
+        <v>0.06704935605427446</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1095696263513288</v>
+        <v>0.1091906460761224</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -763,19 +763,19 @@
         <v>116700</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97268</v>
+        <v>97199</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>139201</v>
+        <v>140853</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1173267922436589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09779025132902716</v>
+        <v>0.09772061357700899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.13994827624645</v>
+        <v>0.1416087339080991</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>165</v>
@@ -784,19 +784,19 @@
         <v>182269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157872</v>
+        <v>156816</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208850</v>
+        <v>210290</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1042130814338748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09026369822436543</v>
+        <v>0.08966014265552888</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1194107350313642</v>
+        <v>0.1202339778741582</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>688778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>671693</v>
+        <v>671979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>702882</v>
+        <v>703769</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9130782840805467</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8904303736486713</v>
+        <v>0.8908093539238776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.931775955068942</v>
+        <v>0.9329506439457256</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>792</v>
@@ -834,19 +834,19 @@
         <v>877960</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>855459</v>
+        <v>853807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>897392</v>
+        <v>897461</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8826732077563411</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.86005172375355</v>
+        <v>0.8583912660919014</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9022097486709734</v>
+        <v>0.9022793864229912</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1489</v>
@@ -855,19 +855,19 @@
         <v>1566738</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1540157</v>
+        <v>1538717</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1591135</v>
+        <v>1592191</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8957869185661252</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8805892649686358</v>
+        <v>0.8797660221258419</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9097363017756341</v>
+        <v>0.9103398573444719</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>109885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90430</v>
+        <v>91919</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133133</v>
+        <v>132014</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05292126225101128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04355169840712024</v>
+        <v>0.04426888132296693</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06411787049420249</v>
+        <v>0.06357866734334616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>155</v>
@@ -980,19 +980,19 @@
         <v>165532</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141601</v>
+        <v>142315</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>194666</v>
+        <v>192318</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08325303803681308</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07121720723622633</v>
+        <v>0.07157637995794426</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09790560865180532</v>
+        <v>0.0967247364153157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>262</v>
@@ -1001,19 +1001,19 @@
         <v>275417</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>243288</v>
+        <v>245812</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>311849</v>
+        <v>309515</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0677584935028795</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05985412802437997</v>
+        <v>0.06047501504274343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07672153885874095</v>
+        <v>0.07614727171576308</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1966500</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1943252</v>
+        <v>1944371</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1985955</v>
+        <v>1984466</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9470787377489888</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9358821295057976</v>
+        <v>0.9364213326566538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9564483015928802</v>
+        <v>0.9557311186770333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1753</v>
@@ -1051,19 +1051,19 @@
         <v>1822768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1793634</v>
+        <v>1795982</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1846699</v>
+        <v>1845985</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9167469619631869</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9020943913481949</v>
+        <v>0.9032752635846845</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9287827927637737</v>
+        <v>0.9284236200420558</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3598</v>
@@ -1072,19 +1072,19 @@
         <v>3789268</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3752836</v>
+        <v>3755170</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3821397</v>
+        <v>3818873</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9322415064971205</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9232784611412591</v>
+        <v>0.923852728284237</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9401458719756201</v>
+        <v>0.9395249849572567</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>38235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26826</v>
+        <v>27553</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50804</v>
+        <v>52893</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06991491156546562</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04905269209980499</v>
+        <v>0.0503822583856594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0928977686329417</v>
+        <v>0.09671756652855765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1197,19 +1197,19 @@
         <v>67780</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52553</v>
+        <v>53226</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87357</v>
+        <v>85436</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1234290759963656</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09570036552872042</v>
+        <v>0.09692686404586713</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1590794766112469</v>
+        <v>0.1555811433142243</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -1218,19 +1218,19 @@
         <v>106015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88689</v>
+        <v>86972</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>125953</v>
+        <v>128156</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09672702373802426</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08091887333720996</v>
+        <v>0.07935217018541672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1149174790755001</v>
+        <v>0.1169280696581356</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>508651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>496082</v>
+        <v>493993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520060</v>
+        <v>519333</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9300850884345344</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9071022313670583</v>
+        <v>0.9032824334714424</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.950947307900195</v>
+        <v>0.9496177416143406</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>466</v>
@@ -1268,19 +1268,19 @@
         <v>481360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>461783</v>
+        <v>463704</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>496587</v>
+        <v>495914</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8765709240036345</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8409205233887532</v>
+        <v>0.8444188566857755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9042996344712798</v>
+        <v>0.9030731359541329</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>932</v>
@@ -1289,19 +1289,19 @@
         <v>990012</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>970074</v>
+        <v>967871</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1007338</v>
+        <v>1009055</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9032729762619758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8850825209244999</v>
+        <v>0.8830719303418644</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.91908112666279</v>
+        <v>0.9206478298145834</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>213690</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>187509</v>
+        <v>186378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>242207</v>
+        <v>240135</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06326634177604672</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05551510002966122</v>
+        <v>0.05518041074738676</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07170955568058866</v>
+        <v>0.07109598314870932</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>315</v>
@@ -1414,19 +1414,19 @@
         <v>350012</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>311600</v>
+        <v>313542</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>387366</v>
+        <v>394083</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09909462876908981</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08821944788229306</v>
+        <v>0.08876938414582437</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1096700637571081</v>
+        <v>0.1115718285440539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>522</v>
@@ -1435,19 +1435,19 @@
         <v>563702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>522381</v>
+        <v>518126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>617597</v>
+        <v>611094</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08158099713998941</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07560097538794661</v>
+        <v>0.07498516879548682</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08938085705906119</v>
+        <v>0.08843981294369174</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3163928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3135411</v>
+        <v>3137483</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3190109</v>
+        <v>3191240</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9367336582239533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9282904443194113</v>
+        <v>0.9289040168512906</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9444848999703388</v>
+        <v>0.9448195892526131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3011</v>
@@ -1485,19 +1485,19 @@
         <v>3182088</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3144734</v>
+        <v>3138017</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3220500</v>
+        <v>3218558</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9009053712309102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8903299362428918</v>
+        <v>0.8884281714559463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9117805521177074</v>
+        <v>0.9112306158541756</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6019</v>
@@ -1506,19 +1506,19 @@
         <v>6346016</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6292121</v>
+        <v>6298624</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6387337</v>
+        <v>6391592</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9184190028600105</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9106191429409392</v>
+        <v>0.9115601870563087</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9243990246120535</v>
+        <v>0.9250148312045134</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>32241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23003</v>
+        <v>23567</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44382</v>
+        <v>43871</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05572879853964761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0397604473903539</v>
+        <v>0.04073613952238819</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07671539953607288</v>
+        <v>0.07583172737442681</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>126</v>
@@ -1870,19 +1870,19 @@
         <v>69261</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57737</v>
+        <v>58756</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83044</v>
+        <v>82662</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08431662076051334</v>
+        <v>0.08431662076051336</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07028797673105314</v>
+        <v>0.07152777126597103</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1010955835486586</v>
+        <v>0.1006305490199854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>170</v>
@@ -1891,19 +1891,19 @@
         <v>101502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87197</v>
+        <v>86303</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119414</v>
+        <v>116138</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07250288032310685</v>
+        <v>0.07250288032310684</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06228450533588256</v>
+        <v>0.06164624624229104</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08529772123264255</v>
+        <v>0.08295719540584294</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>546288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>534147</v>
+        <v>534658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>555526</v>
+        <v>554962</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9442712014603526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.923284600463927</v>
+        <v>0.9241682726255732</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9602395526096462</v>
+        <v>0.9592638604776129</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1300</v>
@@ -1941,19 +1941,19 @@
         <v>752181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>738398</v>
+        <v>738780</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>763705</v>
+        <v>762686</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9156833792394865</v>
+        <v>0.9156833792394869</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8989044164513416</v>
+        <v>0.8993694509800145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9297120232689468</v>
+        <v>0.9284722287340289</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1947</v>
@@ -1962,19 +1962,19 @@
         <v>1298469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1280557</v>
+        <v>1283833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1312774</v>
+        <v>1313668</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9274971196768932</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9147022787673573</v>
+        <v>0.9170428045941572</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9377154946641174</v>
+        <v>0.9383537537577089</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>119779</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97702</v>
+        <v>96155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151987</v>
+        <v>147786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0536991478218506</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04380152407391472</v>
+        <v>0.04310778893869278</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06813835429001192</v>
+        <v>0.0662548861718549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>198</v>
@@ -2087,19 +2087,19 @@
         <v>160611</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138533</v>
+        <v>136500</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>187376</v>
+        <v>184998</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07417940214996924</v>
+        <v>0.07417940214996922</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06398276136881843</v>
+        <v>0.06304389071320876</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0865411868995184</v>
+        <v>0.08544311571704605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>302</v>
@@ -2108,19 +2108,19 @@
         <v>280390</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>244284</v>
+        <v>247931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>319015</v>
+        <v>316514</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06378691709114727</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05557295981372112</v>
+        <v>0.05640256426619344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07257393550000139</v>
+        <v>0.07200485255070985</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2110787</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2078579</v>
+        <v>2082780</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2132864</v>
+        <v>2134411</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9463008521781494</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9318616457099883</v>
+        <v>0.9337451138281451</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9561984759260854</v>
+        <v>0.9568922110613073</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2719</v>
@@ -2158,19 +2158,19 @@
         <v>2004553</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1977788</v>
+        <v>1980166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2026631</v>
+        <v>2028664</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9258205978500307</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9134588131004816</v>
+        <v>0.9145568842829539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9360172386311808</v>
+        <v>0.9369561092867913</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4607</v>
@@ -2179,19 +2179,19 @@
         <v>4115341</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4076716</v>
+        <v>4079217</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4151447</v>
+        <v>4147800</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9362130829088526</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9274260644999989</v>
+        <v>0.9279951474492901</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.944427040186279</v>
+        <v>0.9435974357338066</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>66547</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50455</v>
+        <v>50272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88267</v>
+        <v>88511</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09351889391236114</v>
+        <v>0.09351889391236112</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07090544185448663</v>
+        <v>0.07064820474394824</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.124042678517543</v>
+        <v>0.1243850184421343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -2304,19 +2304,19 @@
         <v>87294</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72258</v>
+        <v>71320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102455</v>
+        <v>103420</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1187873574941905</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09832604401347417</v>
+        <v>0.09705026240675205</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1394184493568176</v>
+        <v>0.1407315786350574</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -2325,19 +2325,19 @@
         <v>153841</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130807</v>
+        <v>130940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179997</v>
+        <v>181030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.106356555827351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09043240604795495</v>
+        <v>0.09052393213651372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1244393241597827</v>
+        <v>0.1251537285546101</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>645040</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>623320</v>
+        <v>623076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>661132</v>
+        <v>661315</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.906481106087639</v>
+        <v>0.9064811060876388</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.875957321482457</v>
+        <v>0.8756149815578657</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.929094558145513</v>
+        <v>0.9293517952560516</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>890</v>
@@ -2375,19 +2375,19 @@
         <v>647583</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>632422</v>
+        <v>631457</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>662619</v>
+        <v>663557</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8812126425058093</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8605815506431822</v>
+        <v>0.8592684213649423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9016739559865258</v>
+        <v>0.9029497375932478</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1511</v>
@@ -2396,19 +2396,19 @@
         <v>1292623</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1266467</v>
+        <v>1265434</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315657</v>
+        <v>1315524</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8936434441726492</v>
+        <v>0.8936434441726491</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8755606758402172</v>
+        <v>0.8748462714453896</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9095675939520452</v>
+        <v>0.9094760678634863</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>218567</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>183860</v>
+        <v>183808</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>250629</v>
+        <v>249994</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06208088218508402</v>
+        <v>0.06208088218508403</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05222271203274215</v>
+        <v>0.05220817711728316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07118749919049797</v>
+        <v>0.07100720627373226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>438</v>
@@ -2521,19 +2521,19 @@
         <v>317166</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>287065</v>
+        <v>285942</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>353531</v>
+        <v>349672</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08522567140795359</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07713723583219728</v>
+        <v>0.07683560214391567</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09499721460998523</v>
+        <v>0.09396043873238308</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>646</v>
@@ -2542,19 +2542,19 @@
         <v>535733</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>490737</v>
+        <v>496042</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>582457</v>
+        <v>579868</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07397413995051171</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06776111920832989</v>
+        <v>0.06849362792420914</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0804257978306553</v>
+        <v>0.08006826072476392</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3302116</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3270054</v>
+        <v>3270689</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3336823</v>
+        <v>3336875</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.937919117814916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9288125008095032</v>
+        <v>0.9289927937262678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9477772879672585</v>
+        <v>0.9477918228827167</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4909</v>
@@ -2592,19 +2592,19 @@
         <v>3404317</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3367952</v>
+        <v>3371811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3434418</v>
+        <v>3435541</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9147743285920463</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9050027853900149</v>
+        <v>0.906039561267617</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9228627641678027</v>
+        <v>0.9231643978560842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8065</v>
@@ -2613,19 +2613,19 @@
         <v>6706433</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6659709</v>
+        <v>6662298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6751429</v>
+        <v>6746124</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9260258600494884</v>
+        <v>0.9260258600494885</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9195742021693448</v>
+        <v>0.9199317392752362</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9322388807916701</v>
+        <v>0.9315063720757909</v>
       </c>
     </row>
     <row r="15">
